--- a/data/survival-regressions.xlsx
+++ b/data/survival-regressions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taylor/SynologyDrive/Cisco-Climate-Change/Coregonine-Embryo-Modeling/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40A826E4-F35E-724F-8FFF-F899E8B6959B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8847AE7-6A77-AE4C-8E18-FB1A5989E434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1500" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="9">
-  <si>
-    <t>group</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="17">
   <si>
     <t>start.temp</t>
   </si>
@@ -37,16 +34,43 @@
     <t>m</t>
   </si>
   <si>
-    <t>LO-Cisco</t>
-  </si>
-  <si>
-    <t>LS-Cisco</t>
-  </si>
-  <si>
-    <t>LK-Whitefish</t>
-  </si>
-  <si>
-    <t>LK-Vendace</t>
+    <t>lake</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>lavaretus</t>
+  </si>
+  <si>
+    <t>albula</t>
+  </si>
+  <si>
+    <t>artedi</t>
+  </si>
+  <si>
+    <t>lavaretus wartmanni</t>
+  </si>
+  <si>
+    <t>lavaretus ﻿macrophthalmus</t>
+  </si>
+  <si>
+    <t>Lake Ontario</t>
+  </si>
+  <si>
+    <t>Lake Superior</t>
+  </si>
+  <si>
+    <t>Lake Konnevesi</t>
+  </si>
+  <si>
+    <t>Lake Constance</t>
+  </si>
+  <si>
+    <t>Lake Geneva</t>
+  </si>
+  <si>
+    <t>Lake Bourget</t>
   </si>
 </sst>
 </file>
@@ -887,310 +911,522 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E3">
+        <v>0.99446737978782895</v>
+      </c>
+      <c r="F3">
+        <v>-6.6002371672397296E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D4">
+        <v>6.9</v>
+      </c>
+      <c r="E4">
+        <v>1.0622521954267901</v>
+      </c>
+      <c r="F4">
+        <v>-1.60656636346692E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>6.9</v>
+      </c>
+      <c r="D5">
+        <v>8.9</v>
+      </c>
+      <c r="E5">
+        <v>1.74034809155621</v>
+      </c>
+      <c r="F5">
+        <v>-0.114340431189658</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E7">
+        <v>0.84182721862369203</v>
+      </c>
+      <c r="F7">
+        <v>-2.0804439006169101E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D8">
+        <v>6.9</v>
+      </c>
+      <c r="E8">
+        <v>0.71649557513051698</v>
+      </c>
+      <c r="F8">
+        <v>7.6800254240980198E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>6.9</v>
+      </c>
+      <c r="D9">
+        <v>8.9</v>
+      </c>
+      <c r="E9">
+        <v>0.894495609594951</v>
+      </c>
+      <c r="F9">
+        <v>-1.8117081020023101E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D11">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
+      <c r="E11">
+        <v>0.76137034470367804</v>
+      </c>
+      <c r="F11">
+        <v>-9.7437180770514095E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <v>6.9</v>
+      </c>
+      <c r="E12">
+        <v>0.44661120400036602</v>
+      </c>
+      <c r="F12">
+        <v>-1.87473955946862E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <v>6.9</v>
+      </c>
+      <c r="D13">
+        <v>8</v>
+      </c>
+      <c r="E13">
+        <v>1.1827105475887001</v>
+      </c>
+      <c r="F13">
+        <v>-0.12542845988285001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
         <v>2</v>
       </c>
-      <c r="D2">
+      <c r="E14">
         <v>1</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="D3">
-        <v>0.99446737978782895</v>
-      </c>
-      <c r="E3">
-        <v>-6.6002371672397296E-4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="C4">
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15">
+        <v>0.93464858095486902</v>
+      </c>
+      <c r="F15">
+        <v>-4.4575850822473603E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16">
         <v>6.9</v>
       </c>
-      <c r="D4">
-        <v>1.0622521954267901</v>
-      </c>
-      <c r="E4">
-        <v>-1.60656636346692E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
+      <c r="E16">
+        <v>0.67431527452677897</v>
+      </c>
+      <c r="F16">
+        <v>2.0507475784548899E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17">
         <v>6.9</v>
       </c>
-      <c r="C5">
-        <v>8.9</v>
-      </c>
-      <c r="D5">
-        <v>1.74034809155621</v>
-      </c>
-      <c r="E5">
-        <v>-0.114340431189658</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="D17">
+        <v>8</v>
+      </c>
+      <c r="E17">
+        <v>1.64201175266527</v>
+      </c>
+      <c r="F17">
+        <v>-0.119738390612333</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>7</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19">
+        <v>7</v>
+      </c>
+      <c r="D19">
+        <v>9</v>
+      </c>
+      <c r="E19">
+        <v>0.9812734082397</v>
+      </c>
+      <c r="F19">
+        <v>-0.57983971648342802</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>7</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21">
+        <v>7</v>
+      </c>
+      <c r="D21">
+        <v>9</v>
+      </c>
+      <c r="E21">
+        <v>0.94554455445544505</v>
+      </c>
+      <c r="F21">
+        <v>-0.43004700143750102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" t="s">
         <v>6</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6">
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>7</v>
+      </c>
+      <c r="E22">
         <v>1</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" t="s">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="D7">
-        <v>0.84182721862369203</v>
-      </c>
-      <c r="E7">
-        <v>-2.0804439006169101E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="C23">
+        <v>7</v>
+      </c>
+      <c r="D23">
+        <v>9</v>
+      </c>
+      <c r="E23">
+        <v>0.89175257731958801</v>
+      </c>
+      <c r="F23">
+        <v>-0.36152587706769801</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" t="s">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="C8">
-        <v>6.9</v>
-      </c>
-      <c r="D8">
-        <v>0.71649557513051698</v>
-      </c>
-      <c r="E8">
-        <v>7.6800254240980198E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>7</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" t="s">
         <v>6</v>
       </c>
-      <c r="B9">
-        <v>6.9</v>
-      </c>
-      <c r="C9">
-        <v>8.9</v>
-      </c>
-      <c r="D9">
-        <v>0.894495609594951</v>
-      </c>
-      <c r="E9">
-        <v>-1.8117081020023101E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="C25">
         <v>7</v>
       </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="C11">
-        <v>4</v>
-      </c>
-      <c r="D11">
-        <v>0.76137034470367804</v>
-      </c>
-      <c r="E11">
-        <v>-9.7437180770514095E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12">
-        <v>4</v>
-      </c>
-      <c r="C12">
-        <v>6.9</v>
-      </c>
-      <c r="D12">
-        <v>0.44661120400036602</v>
-      </c>
-      <c r="E12">
-        <v>-1.87473955946862E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13">
-        <v>6.9</v>
-      </c>
-      <c r="C13">
-        <v>8</v>
-      </c>
-      <c r="D13">
-        <v>1.1827105475887001</v>
-      </c>
-      <c r="E13">
-        <v>-0.12542845988285001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>2</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="C15">
-        <v>4</v>
-      </c>
-      <c r="D15">
-        <v>0.93464858095486902</v>
-      </c>
-      <c r="E15">
-        <v>-4.4575850822473603E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16">
-        <v>4</v>
-      </c>
-      <c r="C16">
-        <v>6.9</v>
-      </c>
-      <c r="D16">
-        <v>0.67431527452677897</v>
-      </c>
-      <c r="E16">
-        <v>2.0507475784548899E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17">
-        <v>6.9</v>
-      </c>
-      <c r="C17">
-        <v>8</v>
-      </c>
-      <c r="D17">
-        <v>1.64201175266527</v>
-      </c>
-      <c r="E17">
-        <v>-0.119738390612333</v>
+      <c r="D25">
+        <v>9</v>
+      </c>
+      <c r="E25">
+        <v>0.93881453154875705</v>
+      </c>
+      <c r="F25">
+        <v>-0.30681453154875699</v>
       </c>
     </row>
   </sheetData>

--- a/data/survival-regressions.xlsx
+++ b/data/survival-regressions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taylor/SynologyDrive/Cisco-Climate-Change/Coregonine-Embryo-Modeling/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8847AE7-6A77-AE4C-8E18-FB1A5989E434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D479FF04-64BE-8C4D-944B-E7346DFB2276}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1500" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,9 +61,6 @@
     <t>Lake Superior</t>
   </si>
   <si>
-    <t>Lake Konnevesi</t>
-  </si>
-  <si>
     <t>Lake Constance</t>
   </si>
   <si>
@@ -71,6 +68,9 @@
   </si>
   <si>
     <t>Lake Bourget</t>
+  </si>
+  <si>
+    <t>Lake Southern Konnevesi</t>
   </si>
 </sst>
 </file>
@@ -914,12 +914,12 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
@@ -1111,7 +1111,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
@@ -1131,7 +1131,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
@@ -1151,7 +1151,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
@@ -1171,7 +1171,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
@@ -1191,7 +1191,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
         <v>7</v>
@@ -1211,7 +1211,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
         <v>7</v>
@@ -1231,7 +1231,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
         <v>7</v>
@@ -1251,7 +1251,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>7</v>
@@ -1271,7 +1271,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B18" t="s">
         <v>10</v>
@@ -1291,7 +1291,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B19" t="s">
         <v>10</v>
@@ -1311,7 +1311,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B20" t="s">
         <v>9</v>
@@ -1331,7 +1331,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B21" t="s">
         <v>9</v>
@@ -1351,7 +1351,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B22" t="s">
         <v>6</v>
@@ -1371,7 +1371,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B23" t="s">
         <v>6</v>
@@ -1391,7 +1391,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B24" t="s">
         <v>6</v>
@@ -1411,7 +1411,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B25" t="s">
         <v>6</v>

--- a/data/survival-regressions.xlsx
+++ b/data/survival-regressions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taylor/SynologyDrive/Cisco-Climate-Change/Coregonine-Embryo-Modeling/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D479FF04-64BE-8C4D-944B-E7346DFB2276}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCCD0AF5-6935-494B-A58A-6D1081A521B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1500" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -914,7 +914,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -960,7 +960,7 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>2.09999</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1040,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>2.09999</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>2.1999900000000001</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>2.1999900000000001</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1280,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>7</v>
+        <v>6.9999900000000004</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1320,7 +1320,7 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>7</v>
+        <v>6.9999900000000004</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -1360,7 +1360,7 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>7</v>
+        <v>6.9999900000000004</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>7</v>
+        <v>6.9999900000000004</v>
       </c>
       <c r="E24">
         <v>1</v>

--- a/data/survival-regressions.xlsx
+++ b/data/survival-regressions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taylor/SynologyDrive/Cisco-Climate-Change/Coregonine-Embryo-Modeling/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCCD0AF5-6935-494B-A58A-6D1081A521B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2FAA8DC-1153-DF4B-921A-7AEDA3CC1DCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1500" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13000" yWindow="1120" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survival-regressions" sheetId="1" r:id="rId1"/>
@@ -914,7 +914,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1303,10 +1303,10 @@
         <v>9</v>
       </c>
       <c r="E19">
-        <v>0.9812734082397</v>
+        <v>3.0107119999999998</v>
       </c>
       <c r="F19">
-        <v>-0.57983971648342802</v>
+        <v>-0.28991990000000001</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -1343,10 +1343,10 @@
         <v>9</v>
       </c>
       <c r="E21">
-        <v>0.94554455445544505</v>
+        <v>2.4507089999999998</v>
       </c>
       <c r="F21">
-        <v>-0.43004700143750102</v>
+        <v>-0.21502350000000001</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -1383,10 +1383,10 @@
         <v>9</v>
       </c>
       <c r="E23">
-        <v>0.89175257731958801</v>
+        <v>2.1570930000000001</v>
       </c>
       <c r="F23">
-        <v>-0.36152587706769801</v>
+        <v>-0.1807629</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -1423,10 +1423,10 @@
         <v>9</v>
       </c>
       <c r="E25">
-        <v>0.93881453154875705</v>
+        <v>2.0126650000000001</v>
       </c>
       <c r="F25">
-        <v>-0.30681453154875699</v>
+        <v>-0.1534073</v>
       </c>
     </row>
   </sheetData>

--- a/data/survival-regressions.xlsx
+++ b/data/survival-regressions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taylor/SynologyDrive/Cisco-Climate-Change/Coregonine-Embryo-Modeling/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2FAA8DC-1153-DF4B-921A-7AEDA3CC1DCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AA93115-11B4-2F4A-8097-6394BB3A384E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13000" yWindow="1120" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5560" yWindow="1120" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survival-regressions" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="46">
   <si>
     <t>start.temp</t>
   </si>
@@ -71,6 +71,93 @@
   </si>
   <si>
     <t>Lake Southern Konnevesi</t>
+  </si>
+  <si>
+    <t>#/////////////////////////////////////</t>
+  </si>
+  <si>
+    <t># -----START OF METADATA -----</t>
+  </si>
+  <si>
+    <t># ------------------------------------------------</t>
+  </si>
+  <si>
+    <t># TITLE: Biological parameters for temperature-dependent embryo development model</t>
+  </si>
+  <si>
+    <t># DATE: 1-July-2021</t>
+  </si>
+  <si>
+    <t># AUTHOR: Taylor R. Stewart</t>
+  </si>
+  <si>
+    <t># AUTHOR EMAIL: taylor.stewart@uvm.edu</t>
+  </si>
+  <si>
+    <t># AUTHOR ADDRESS: 3 College St, Burlington VT, 05401 USA</t>
+  </si>
+  <si>
+    <t># AUTHOR WEBSITE: https://taylorstewart.github.io/</t>
+  </si>
+  <si>
+    <t># OWNERSHIP: Taylor R. Stewart</t>
+  </si>
+  <si>
+    <t># COLLABORATORS: Matteo Zucchetta; Juha Karjalainen; Chloé Goulon; Orlane Anneville; Mark R. Vinson; Josef Wanzenböck; and Jason D. Stockwell</t>
+  </si>
+  <si>
+    <t># FUNDING SOURCES: USGS #G17AC00042</t>
+  </si>
+  <si>
+    <t># REPOSITORY: https://github.com/taylorstewart/Stewart-et-al-20XX---Coregonine-Embryo-Modeling</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># CITATIONS: </t>
+  </si>
+  <si>
+    <t># VARIABLE DESCRIPTION:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  # lake: name of lake</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  # max.depth_m: maximum depth of lake; m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  # depth.group: depth zone of maximum lake depth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  # include: logical variable (yes/no) if lake should be included in analyses based on matching climate zone and study group criteria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  # include.depth: logical variable (yes/no) if lake should be included in analyses based on matching depth zone and study group criteria</t>
+  </si>
+  <si>
+    <t># ----- END OF METADATA -----</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t># ----- START OF DATA -----</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  # species: species name each model corresponds to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  # start.temp: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  # end.temp: upper temperature in survival regression; °C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  # start.temp: lower temperature in survival regression; °C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  # b: intercept in survival regression</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  # m: slope in survival regression</t>
   </si>
 </sst>
 </file>
@@ -554,8 +641,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -911,10 +999,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:J68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -929,503 +1017,732 @@
     <col min="8" max="8" width="9.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>40</v>
+      </c>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>41</v>
+      </c>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>33</v>
+      </c>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>35</v>
+      </c>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>36</v>
+      </c>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B44" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C44" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D44" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E44" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F44" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B45" t="s">
         <v>8</v>
       </c>
-      <c r="C2">
+      <c r="C45">
         <v>0</v>
       </c>
-      <c r="D2">
+      <c r="D45">
         <v>2.09999</v>
       </c>
-      <c r="E2">
+      <c r="E45">
         <v>1</v>
       </c>
-      <c r="F2">
+      <c r="F45">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B46" t="s">
         <v>8</v>
       </c>
-      <c r="C3">
+      <c r="C46">
         <v>2</v>
       </c>
-      <c r="D3">
+      <c r="D46">
         <v>4.4000000000000004</v>
       </c>
-      <c r="E3">
+      <c r="E46">
         <v>0.99446737978782895</v>
       </c>
-      <c r="F3">
+      <c r="F46">
         <v>-6.6002371672397296E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B47" t="s">
         <v>8</v>
       </c>
-      <c r="C4">
+      <c r="C47">
         <v>4.4000000000000004</v>
       </c>
-      <c r="D4">
+      <c r="D47">
         <v>6.9</v>
       </c>
-      <c r="E4">
+      <c r="E47">
         <v>1.0622521954267901</v>
       </c>
-      <c r="F4">
+      <c r="F47">
         <v>-1.60656636346692E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B48" t="s">
         <v>8</v>
       </c>
-      <c r="C5">
+      <c r="C48">
         <v>6.9</v>
       </c>
-      <c r="D5">
+      <c r="D48">
         <v>8.9</v>
       </c>
-      <c r="E5">
+      <c r="E48">
         <v>1.74034809155621</v>
       </c>
-      <c r="F5">
+      <c r="F48">
         <v>-0.114340431189658</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
         <v>12</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B49" t="s">
         <v>8</v>
       </c>
-      <c r="C6">
+      <c r="C49">
         <v>0</v>
       </c>
-      <c r="D6">
+      <c r="D49">
         <v>2.09999</v>
       </c>
-      <c r="E6">
+      <c r="E49">
         <v>1</v>
       </c>
-      <c r="F6">
+      <c r="F49">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B50" t="s">
         <v>8</v>
       </c>
-      <c r="C7">
+      <c r="C50">
         <v>2</v>
       </c>
-      <c r="D7">
+      <c r="D50">
         <v>4.4000000000000004</v>
       </c>
-      <c r="E7">
+      <c r="E50">
         <v>0.84182721862369203</v>
       </c>
-      <c r="F7">
+      <c r="F50">
         <v>-2.0804439006169101E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
         <v>12</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B51" t="s">
         <v>8</v>
       </c>
-      <c r="C8">
+      <c r="C51">
         <v>4.4000000000000004</v>
       </c>
-      <c r="D8">
+      <c r="D51">
         <v>6.9</v>
       </c>
-      <c r="E8">
+      <c r="E51">
         <v>0.71649557513051698</v>
       </c>
-      <c r="F8">
+      <c r="F51">
         <v>7.6800254240980198E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
         <v>12</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B52" t="s">
         <v>8</v>
       </c>
-      <c r="C9">
+      <c r="C52">
         <v>6.9</v>
       </c>
-      <c r="D9">
+      <c r="D52">
         <v>8.9</v>
       </c>
-      <c r="E9">
+      <c r="E52">
         <v>0.894495609594951</v>
       </c>
-      <c r="F9">
+      <c r="F52">
         <v>-1.8117081020023101E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
         <v>16</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B53" t="s">
         <v>6</v>
       </c>
-      <c r="C10">
+      <c r="C53">
         <v>0</v>
       </c>
-      <c r="D10">
+      <c r="D53">
         <v>2.1999900000000001</v>
       </c>
-      <c r="E10">
+      <c r="E53">
         <v>1</v>
       </c>
-      <c r="F10">
+      <c r="F53">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
         <v>16</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B54" t="s">
         <v>6</v>
       </c>
-      <c r="C11">
+      <c r="C54">
         <v>2.2000000000000002</v>
       </c>
-      <c r="D11">
+      <c r="D54">
         <v>4</v>
       </c>
-      <c r="E11">
+      <c r="E54">
         <v>0.76137034470367804</v>
       </c>
-      <c r="F11">
+      <c r="F54">
         <v>-9.7437180770514095E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
         <v>16</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B55" t="s">
         <v>6</v>
       </c>
-      <c r="C12">
+      <c r="C55">
         <v>4</v>
       </c>
-      <c r="D12">
+      <c r="D55">
         <v>6.9</v>
       </c>
-      <c r="E12">
+      <c r="E55">
         <v>0.44661120400036602</v>
       </c>
-      <c r="F12">
+      <c r="F55">
         <v>-1.87473955946862E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
         <v>16</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B56" t="s">
         <v>6</v>
       </c>
-      <c r="C13">
+      <c r="C56">
         <v>6.9</v>
       </c>
-      <c r="D13">
+      <c r="D56">
         <v>8</v>
       </c>
-      <c r="E13">
+      <c r="E56">
         <v>1.1827105475887001</v>
       </c>
-      <c r="F13">
+      <c r="F56">
         <v>-0.12542845988285001</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
         <v>16</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B57" t="s">
         <v>7</v>
       </c>
-      <c r="C14">
+      <c r="C57">
         <v>0</v>
       </c>
-      <c r="D14">
+      <c r="D57">
         <v>2.1999900000000001</v>
       </c>
-      <c r="E14">
+      <c r="E57">
         <v>1</v>
       </c>
-      <c r="F14">
+      <c r="F57">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
         <v>16</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B58" t="s">
         <v>7</v>
       </c>
-      <c r="C15">
+      <c r="C58">
         <v>2.2000000000000002</v>
       </c>
-      <c r="D15">
+      <c r="D58">
         <v>4</v>
       </c>
-      <c r="E15">
+      <c r="E58">
         <v>0.93464858095486902</v>
       </c>
-      <c r="F15">
+      <c r="F58">
         <v>-4.4575850822473603E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
         <v>16</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B59" t="s">
         <v>7</v>
       </c>
-      <c r="C16">
+      <c r="C59">
         <v>4</v>
       </c>
-      <c r="D16">
+      <c r="D59">
         <v>6.9</v>
       </c>
-      <c r="E16">
+      <c r="E59">
         <v>0.67431527452677897</v>
       </c>
-      <c r="F16">
+      <c r="F59">
         <v>2.0507475784548899E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B60" t="s">
         <v>7</v>
       </c>
-      <c r="C17">
+      <c r="C60">
         <v>6.9</v>
       </c>
-      <c r="D17">
+      <c r="D60">
         <v>8</v>
       </c>
-      <c r="E17">
+      <c r="E60">
         <v>1.64201175266527</v>
       </c>
-      <c r="F17">
+      <c r="F60">
         <v>-0.119738390612333</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
         <v>13</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B61" t="s">
         <v>10</v>
       </c>
-      <c r="C18">
+      <c r="C61">
         <v>0</v>
       </c>
-      <c r="D18">
+      <c r="D61">
         <v>6.9999900000000004</v>
       </c>
-      <c r="E18">
+      <c r="E61">
         <v>1</v>
       </c>
-      <c r="F18">
+      <c r="F61">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
         <v>13</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B62" t="s">
         <v>10</v>
       </c>
-      <c r="C19">
+      <c r="C62">
         <v>7</v>
       </c>
-      <c r="D19">
+      <c r="D62">
         <v>9</v>
       </c>
-      <c r="E19">
+      <c r="E62">
         <v>3.0107119999999998</v>
       </c>
-      <c r="F19">
+      <c r="F62">
         <v>-0.28991990000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
         <v>13</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B63" t="s">
         <v>9</v>
       </c>
-      <c r="C20">
+      <c r="C63">
         <v>0</v>
       </c>
-      <c r="D20">
+      <c r="D63">
         <v>6.9999900000000004</v>
       </c>
-      <c r="E20">
+      <c r="E63">
         <v>1</v>
       </c>
-      <c r="F20">
+      <c r="F63">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
         <v>13</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B64" t="s">
         <v>9</v>
       </c>
-      <c r="C21">
+      <c r="C64">
         <v>7</v>
       </c>
-      <c r="D21">
+      <c r="D64">
         <v>9</v>
       </c>
-      <c r="E21">
+      <c r="E64">
         <v>2.4507089999999998</v>
       </c>
-      <c r="F21">
+      <c r="F64">
         <v>-0.21502350000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
         <v>14</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B65" t="s">
         <v>6</v>
       </c>
-      <c r="C22">
+      <c r="C65">
         <v>0</v>
       </c>
-      <c r="D22">
+      <c r="D65">
         <v>6.9999900000000004</v>
       </c>
-      <c r="E22">
+      <c r="E65">
         <v>1</v>
       </c>
-      <c r="F22">
+      <c r="F65">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
         <v>14</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B66" t="s">
         <v>6</v>
       </c>
-      <c r="C23">
+      <c r="C66">
         <v>7</v>
       </c>
-      <c r="D23">
+      <c r="D66">
         <v>9</v>
       </c>
-      <c r="E23">
+      <c r="E66">
         <v>2.1570930000000001</v>
       </c>
-      <c r="F23">
+      <c r="F66">
         <v>-0.1807629</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
         <v>15</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B67" t="s">
         <v>6</v>
       </c>
-      <c r="C24">
+      <c r="C67">
         <v>0</v>
       </c>
-      <c r="D24">
+      <c r="D67">
         <v>6.9999900000000004</v>
       </c>
-      <c r="E24">
+      <c r="E67">
         <v>1</v>
       </c>
-      <c r="F24">
+      <c r="F67">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
         <v>15</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B68" t="s">
         <v>6</v>
       </c>
-      <c r="C25">
+      <c r="C68">
         <v>7</v>
       </c>
-      <c r="D25">
+      <c r="D68">
         <v>9</v>
       </c>
-      <c r="E25">
+      <c r="E68">
         <v>2.0126650000000001</v>
       </c>
-      <c r="F25">
+      <c r="F68">
         <v>-0.1534073</v>
       </c>
     </row>

--- a/data/survival-regressions.xlsx
+++ b/data/survival-regressions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taylor/SynologyDrive/Cisco-Climate-Change/Coregonine-Embryo-Modeling/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AA93115-11B4-2F4A-8097-6394BB3A384E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09E1ACA4-C093-2143-8E7F-159322993911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5560" yWindow="1120" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="41">
   <si>
     <t>start.temp</t>
   </si>
@@ -121,18 +121,6 @@
     <t xml:space="preserve">  # lake: name of lake</t>
   </si>
   <si>
-    <t xml:space="preserve">  # max.depth_m: maximum depth of lake; m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  # depth.group: depth zone of maximum lake depth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  # include: logical variable (yes/no) if lake should be included in analyses based on matching climate zone and study group criteria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  # include.depth: logical variable (yes/no) if lake should be included in analyses based on matching depth zone and study group criteria</t>
-  </si>
-  <si>
     <t># ----- END OF METADATA -----</t>
   </si>
   <si>
@@ -143,9 +131,6 @@
   </si>
   <si>
     <t xml:space="preserve">  # species: species name each model corresponds to</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  # start.temp: </t>
   </si>
   <si>
     <t xml:space="preserve">  # end.temp: upper temperature in survival regression; °C</t>
@@ -641,9 +626,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -999,10 +983,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J68"/>
+  <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1097,652 +1081,573 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>32</v>
       </c>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>40</v>
       </c>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>41</v>
-      </c>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>33</v>
       </c>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>34</v>
       </c>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>35</v>
       </c>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>36</v>
-      </c>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="B31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" t="s">
+        <v>0</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>2</v>
+      </c>
+      <c r="F31" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>11</v>
+      </c>
+      <c r="B32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>2.09999</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>40</v>
+        <v>11</v>
+      </c>
+      <c r="B33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E33">
+        <v>0.99446737978782895</v>
+      </c>
+      <c r="F33">
+        <v>-6.6002371672397296E-4</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>43</v>
+        <v>11</v>
+      </c>
+      <c r="B34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D34">
+        <v>6.9</v>
+      </c>
+      <c r="E34">
+        <v>1.0622521954267901</v>
+      </c>
+      <c r="F34">
+        <v>-1.60656636346692E-2</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>42</v>
+        <v>11</v>
+      </c>
+      <c r="B35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35">
+        <v>6.9</v>
+      </c>
+      <c r="D35">
+        <v>8.9</v>
+      </c>
+      <c r="E35">
+        <v>1.74034809155621</v>
+      </c>
+      <c r="F35">
+        <v>-0.114340431189658</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>44</v>
+        <v>12</v>
+      </c>
+      <c r="B36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>2.09999</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>45</v>
+        <v>12</v>
+      </c>
+      <c r="B37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E37">
+        <v>0.84182721862369203</v>
+      </c>
+      <c r="F37">
+        <v>-2.0804439006169101E-2</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>12</v>
+      </c>
+      <c r="B38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D38">
+        <v>6.9</v>
+      </c>
+      <c r="E38">
+        <v>0.71649557513051698</v>
+      </c>
+      <c r="F38">
+        <v>7.6800254240980198E-3</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>17</v>
+        <v>12</v>
+      </c>
+      <c r="B39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39">
+        <v>6.9</v>
+      </c>
+      <c r="D39">
+        <v>8.9</v>
+      </c>
+      <c r="E39">
+        <v>0.894495609594951</v>
+      </c>
+      <c r="F39">
+        <v>-1.8117081020023101E-2</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>38</v>
+        <v>16</v>
+      </c>
+      <c r="B40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>2.1999900000000001</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>38</v>
+        <v>16</v>
+      </c>
+      <c r="B41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D41">
+        <v>4</v>
+      </c>
+      <c r="E41">
+        <v>0.76137034470367804</v>
+      </c>
+      <c r="F41">
+        <v>-9.7437180770514095E-2</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>39</v>
+        <v>16</v>
+      </c>
+      <c r="B42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42">
+        <v>4</v>
+      </c>
+      <c r="D42">
+        <v>6.9</v>
+      </c>
+      <c r="E42">
+        <v>0.44661120400036602</v>
+      </c>
+      <c r="F42">
+        <v>-1.87473955946862E-2</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>38</v>
+        <v>16</v>
+      </c>
+      <c r="B43" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43">
+        <v>6.9</v>
+      </c>
+      <c r="D43">
+        <v>8</v>
+      </c>
+      <c r="E43">
+        <v>1.1827105475887001</v>
+      </c>
+      <c r="F43">
+        <v>-0.12542845988285001</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B44" t="s">
-        <v>5</v>
-      </c>
-      <c r="C44" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44">
         <v>0</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44">
+        <v>2.1999900000000001</v>
+      </c>
+      <c r="E44">
         <v>1</v>
       </c>
-      <c r="E44" t="s">
-        <v>2</v>
-      </c>
-      <c r="F44" t="s">
-        <v>3</v>
+      <c r="F44">
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="D45">
-        <v>2.09999</v>
+        <v>4</v>
       </c>
       <c r="E45">
-        <v>1</v>
+        <v>0.93464858095486902</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>-4.4575850822473603E-2</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C46">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D46">
-        <v>4.4000000000000004</v>
+        <v>6.9</v>
       </c>
       <c r="E46">
-        <v>0.99446737978782895</v>
+        <v>0.67431527452677897</v>
       </c>
       <c r="F46">
-        <v>-6.6002371672397296E-4</v>
+        <v>2.0507475784548899E-2</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47">
+        <v>6.9</v>
+      </c>
+      <c r="D47">
         <v>8</v>
       </c>
-      <c r="C47">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="D47">
-        <v>6.9</v>
-      </c>
       <c r="E47">
-        <v>1.0622521954267901</v>
+        <v>1.64201175266527</v>
       </c>
       <c r="F47">
-        <v>-1.60656636346692E-2</v>
+        <v>-0.119738390612333</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C48">
-        <v>6.9</v>
+        <v>0</v>
       </c>
       <c r="D48">
-        <v>8.9</v>
+        <v>6.9999900000000004</v>
       </c>
       <c r="E48">
-        <v>1.74034809155621</v>
+        <v>1</v>
       </c>
       <c r="F48">
-        <v>-0.114340431189658</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D49">
-        <v>2.09999</v>
+        <v>9</v>
       </c>
       <c r="E49">
-        <v>1</v>
+        <v>3.0107119999999998</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>-0.28991990000000001</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D50">
-        <v>4.4000000000000004</v>
+        <v>6.9999900000000004</v>
       </c>
       <c r="E50">
-        <v>0.84182721862369203</v>
+        <v>1</v>
       </c>
       <c r="F50">
-        <v>-2.0804439006169101E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51">
-        <v>4.4000000000000004</v>
+        <v>7</v>
       </c>
       <c r="D51">
-        <v>6.9</v>
+        <v>9</v>
       </c>
       <c r="E51">
-        <v>0.71649557513051698</v>
+        <v>2.4507089999999998</v>
       </c>
       <c r="F51">
-        <v>7.6800254240980198E-3</v>
+        <v>-0.21502350000000001</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C52">
-        <v>6.9</v>
+        <v>0</v>
       </c>
       <c r="D52">
-        <v>8.9</v>
+        <v>6.9999900000000004</v>
       </c>
       <c r="E52">
-        <v>0.894495609594951</v>
+        <v>1</v>
       </c>
       <c r="F52">
-        <v>-1.8117081020023101E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B53" t="s">
         <v>6</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D53">
-        <v>2.1999900000000001</v>
+        <v>9</v>
       </c>
       <c r="E53">
-        <v>1</v>
+        <v>2.1570930000000001</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>-0.1807629</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B54" t="s">
         <v>6</v>
       </c>
       <c r="C54">
-        <v>2.2000000000000002</v>
+        <v>0</v>
       </c>
       <c r="D54">
-        <v>4</v>
+        <v>6.9999900000000004</v>
       </c>
       <c r="E54">
-        <v>0.76137034470367804</v>
+        <v>1</v>
       </c>
       <c r="F54">
-        <v>-9.7437180770514095E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B55" t="s">
         <v>6</v>
       </c>
       <c r="C55">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D55">
-        <v>6.9</v>
+        <v>9</v>
       </c>
       <c r="E55">
-        <v>0.44661120400036602</v>
+        <v>2.0126650000000001</v>
       </c>
       <c r="F55">
-        <v>-1.87473955946862E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>16</v>
-      </c>
-      <c r="B56" t="s">
-        <v>6</v>
-      </c>
-      <c r="C56">
-        <v>6.9</v>
-      </c>
-      <c r="D56">
-        <v>8</v>
-      </c>
-      <c r="E56">
-        <v>1.1827105475887001</v>
-      </c>
-      <c r="F56">
-        <v>-0.12542845988285001</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>16</v>
-      </c>
-      <c r="B57" t="s">
-        <v>7</v>
-      </c>
-      <c r="C57">
-        <v>0</v>
-      </c>
-      <c r="D57">
-        <v>2.1999900000000001</v>
-      </c>
-      <c r="E57">
-        <v>1</v>
-      </c>
-      <c r="F57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>16</v>
-      </c>
-      <c r="B58" t="s">
-        <v>7</v>
-      </c>
-      <c r="C58">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="D58">
-        <v>4</v>
-      </c>
-      <c r="E58">
-        <v>0.93464858095486902</v>
-      </c>
-      <c r="F58">
-        <v>-4.4575850822473603E-2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>16</v>
-      </c>
-      <c r="B59" t="s">
-        <v>7</v>
-      </c>
-      <c r="C59">
-        <v>4</v>
-      </c>
-      <c r="D59">
-        <v>6.9</v>
-      </c>
-      <c r="E59">
-        <v>0.67431527452677897</v>
-      </c>
-      <c r="F59">
-        <v>2.0507475784548899E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>16</v>
-      </c>
-      <c r="B60" t="s">
-        <v>7</v>
-      </c>
-      <c r="C60">
-        <v>6.9</v>
-      </c>
-      <c r="D60">
-        <v>8</v>
-      </c>
-      <c r="E60">
-        <v>1.64201175266527</v>
-      </c>
-      <c r="F60">
-        <v>-0.119738390612333</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>13</v>
-      </c>
-      <c r="B61" t="s">
-        <v>10</v>
-      </c>
-      <c r="C61">
-        <v>0</v>
-      </c>
-      <c r="D61">
-        <v>6.9999900000000004</v>
-      </c>
-      <c r="E61">
-        <v>1</v>
-      </c>
-      <c r="F61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>13</v>
-      </c>
-      <c r="B62" t="s">
-        <v>10</v>
-      </c>
-      <c r="C62">
-        <v>7</v>
-      </c>
-      <c r="D62">
-        <v>9</v>
-      </c>
-      <c r="E62">
-        <v>3.0107119999999998</v>
-      </c>
-      <c r="F62">
-        <v>-0.28991990000000001</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>13</v>
-      </c>
-      <c r="B63" t="s">
-        <v>9</v>
-      </c>
-      <c r="C63">
-        <v>0</v>
-      </c>
-      <c r="D63">
-        <v>6.9999900000000004</v>
-      </c>
-      <c r="E63">
-        <v>1</v>
-      </c>
-      <c r="F63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>13</v>
-      </c>
-      <c r="B64" t="s">
-        <v>9</v>
-      </c>
-      <c r="C64">
-        <v>7</v>
-      </c>
-      <c r="D64">
-        <v>9</v>
-      </c>
-      <c r="E64">
-        <v>2.4507089999999998</v>
-      </c>
-      <c r="F64">
-        <v>-0.21502350000000001</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>14</v>
-      </c>
-      <c r="B65" t="s">
-        <v>6</v>
-      </c>
-      <c r="C65">
-        <v>0</v>
-      </c>
-      <c r="D65">
-        <v>6.9999900000000004</v>
-      </c>
-      <c r="E65">
-        <v>1</v>
-      </c>
-      <c r="F65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>14</v>
-      </c>
-      <c r="B66" t="s">
-        <v>6</v>
-      </c>
-      <c r="C66">
-        <v>7</v>
-      </c>
-      <c r="D66">
-        <v>9</v>
-      </c>
-      <c r="E66">
-        <v>2.1570930000000001</v>
-      </c>
-      <c r="F66">
-        <v>-0.1807629</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>15</v>
-      </c>
-      <c r="B67" t="s">
-        <v>6</v>
-      </c>
-      <c r="C67">
-        <v>0</v>
-      </c>
-      <c r="D67">
-        <v>6.9999900000000004</v>
-      </c>
-      <c r="E67">
-        <v>1</v>
-      </c>
-      <c r="F67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>15</v>
-      </c>
-      <c r="B68" t="s">
-        <v>6</v>
-      </c>
-      <c r="C68">
-        <v>7</v>
-      </c>
-      <c r="D68">
-        <v>9</v>
-      </c>
-      <c r="E68">
-        <v>2.0126650000000001</v>
-      </c>
-      <c r="F68">
         <v>-0.1534073</v>
       </c>
     </row>
